--- a/xlsx/普莱瑟县_intext.xlsx
+++ b/xlsx/普莱瑟县_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>普莱瑟县</t>
   </si>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科爾法克斯 (加利福尼亞州)</t>
+    <t>科尔法克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛克林 (加利福尼亞州)</t>
+    <t>洛克林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%B6%AD%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅斯維爾 (加利福尼亞州)</t>
+    <t>罗斯维尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%B1%B3%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8D%A2%E9%BB%98%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -323,25 +323,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -353,31 +353,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -557,15 +557,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>罗斯维尔 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%88%A9%E7%BA%B3%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -581,19 +578,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -611,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -743,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
 </sst>
 </file>
@@ -3836,7 +3833,7 @@
         <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3862,10 +3859,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3891,10 +3888,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3920,10 +3917,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3978,10 +3975,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4007,10 +4004,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4036,10 +4033,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4065,10 +4062,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4094,10 +4091,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4123,10 +4120,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4152,10 +4149,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4181,10 +4178,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4210,10 +4207,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4239,10 +4236,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4268,10 +4265,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4297,10 +4294,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4326,10 +4323,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4355,10 +4352,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4384,10 +4381,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4413,10 +4410,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4442,10 +4439,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4471,10 +4468,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4500,10 +4497,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4529,10 +4526,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4558,10 +4555,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4587,10 +4584,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4616,10 +4613,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4645,10 +4642,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4674,10 +4671,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4703,10 +4700,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4732,10 +4729,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4761,10 +4758,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4790,10 +4787,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4819,10 +4816,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -4848,10 +4845,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4877,10 +4874,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4906,10 +4903,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4935,10 +4932,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4964,10 +4961,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4993,10 +4990,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
